--- a/IS447/System/Data/Pharmacy Dept/GEH TTO Data/GEH TTO TAT 2021 Sep.xlsx
+++ b/IS447/System/Data/Pharmacy Dept/GEH TTO Data/GEH TTO TAT 2021 Sep.xlsx
@@ -1,33 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\3. Operational\3c. TTO Statistics\TTO TAT DATA\Raw Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sherminliam/Documents/School Work/IS447/IS447---Smart-Healthcare/IS447/System/Data/Pharmacy Dept/GEH TTO Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192B61F6-8108-4049-8BBC-B824B011F2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9380"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="19200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$377</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$346</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="86">
   <si>
     <t>No</t>
   </si>
@@ -286,14 +297,11 @@
   <si>
     <t xml:space="preserve">Stephanie </t>
   </si>
-  <si>
-    <t>110P</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -667,31 +675,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z377"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.453125" customWidth="1"/>
-    <col min="14" max="14" width="12.90625" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.1796875" customWidth="1"/>
-    <col min="19" max="19" width="14.81640625" customWidth="1"/>
-    <col min="20" max="20" width="18.54296875" customWidth="1"/>
-    <col min="26" max="26" width="8.90625" style="15"/>
+    <col min="11" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.1640625" customWidth="1"/>
+    <col min="19" max="19" width="14.83203125" customWidth="1"/>
+    <col min="20" max="20" width="18.5" customWidth="1"/>
+    <col min="26" max="26" width="8.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -765,7 +773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="19">
         <v>44469</v>
       </c>
@@ -818,7 +826,7 @@
         <v>495.83333333333337</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <v>44469</v>
       </c>
@@ -880,7 +888,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="19">
         <v>44469</v>
       </c>
@@ -942,7 +950,7 @@
         <v>32.083333333333336</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>44469</v>
       </c>
@@ -1004,7 +1012,7 @@
         <v>48.611111111111114</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
         <v>44469</v>
       </c>
@@ -1063,7 +1071,7 @@
         <v>54.444444444444443</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>44469</v>
       </c>
@@ -1125,7 +1133,7 @@
         <v>32.083333333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
         <v>44469</v>
       </c>
@@ -1184,7 +1192,7 @@
         <v>32.083333333333336</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <v>44469</v>
       </c>
@@ -1246,7 +1254,7 @@
         <v>33.055555555555557</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>44469</v>
       </c>
@@ -1308,7 +1316,7 @@
         <v>14.583333333333332</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>44469</v>
       </c>
@@ -1370,7 +1378,7 @@
         <v>14.583333333333332</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>44469</v>
       </c>
@@ -1432,7 +1440,7 @@
         <v>13.611111111111111</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>44469</v>
       </c>
@@ -1494,7 +1502,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>44469</v>
       </c>
@@ -1556,7 +1564,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>44469</v>
       </c>
@@ -1618,7 +1626,7 @@
         <v>19.444444444444443</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>44469</v>
       </c>
@@ -1680,7 +1688,7 @@
         <v>22.361111111111114</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>44469</v>
       </c>
@@ -1742,7 +1750,7 @@
         <v>9.7222222222222214</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>44469</v>
       </c>
@@ -1804,7 +1812,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>44468</v>
       </c>
@@ -1860,7 +1868,7 @@
         <v>98.194444444444443</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <v>44468</v>
       </c>
@@ -1922,7 +1930,7 @@
         <v>24.305555555555557</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
         <v>44468</v>
       </c>
@@ -1978,7 +1986,7 @@
         <v>45.69444444444445</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>44468</v>
       </c>
@@ -2034,7 +2042,7 @@
         <v>281.9444444444444</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <v>44468</v>
       </c>
@@ -2096,7 +2104,7 @@
         <v>61.250000000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>44468</v>
       </c>
@@ -2158,7 +2166,7 @@
         <v>30.138888888888893</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
         <v>44468</v>
       </c>
@@ -2220,7 +2228,7 @@
         <v>169.16666666666666</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <v>44468</v>
       </c>
@@ -2282,7 +2290,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
         <v>44468</v>
       </c>
@@ -2344,7 +2352,7 @@
         <v>24.305555555555557</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <v>44468</v>
       </c>
@@ -2406,7 +2414,7 @@
         <v>33.055555555555557</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
         <v>44468</v>
       </c>
@@ -2468,7 +2476,7 @@
         <v>29.166666666666664</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>44468</v>
       </c>
@@ -2527,7 +2535,7 @@
         <v>27.222222222222221</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
         <v>44467</v>
       </c>
@@ -2586,7 +2594,7 @@
         <v>28.194444444444446</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
         <v>44467</v>
       </c>
@@ -2648,7 +2656,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="19">
         <v>44467</v>
       </c>
@@ -2710,7 +2718,7 @@
         <v>22.361111111111114</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <v>44467</v>
       </c>
@@ -2763,7 +2771,7 @@
         <v>525.97222222222229</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="19">
         <v>44467</v>
       </c>
@@ -2825,7 +2833,7 @@
         <v>49.583333333333329</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="19">
         <v>44467</v>
       </c>
@@ -2878,7 +2886,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="19">
         <v>44467</v>
       </c>
@@ -2940,7 +2948,7 @@
         <v>14.583333333333332</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="19">
         <v>44466</v>
       </c>
@@ -3002,7 +3010,7 @@
         <v>27.222222222222221</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="19">
         <v>44466</v>
       </c>
@@ -3064,7 +3072,7 @@
         <v>28.194444444444446</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="19">
         <v>44466</v>
       </c>
@@ -3120,7 +3128,7 @@
         <v>86.527777777777786</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="19">
         <v>44466</v>
       </c>
@@ -3182,7 +3190,7 @@
         <v>16.527777777777779</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="19">
         <v>44466</v>
       </c>
@@ -3238,7 +3246,7 @@
         <v>56.388888888888893</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="19">
         <v>44466</v>
       </c>
@@ -3291,7 +3299,7 @@
         <v>562.91666666666674</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
         <v>44466</v>
       </c>
@@ -3347,7 +3355,7 @@
         <v>22.361111111111114</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="19">
         <v>44466</v>
       </c>
@@ -3409,7 +3417,7 @@
         <v>40.833333333333329</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="19">
         <v>44466</v>
       </c>
@@ -3471,7 +3479,7 @@
         <v>92.361111111111114</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="19">
         <v>44465</v>
       </c>
@@ -3533,7 +3541,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
         <v>44465</v>
       </c>
@@ -3595,7 +3603,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="19">
         <v>44465</v>
       </c>
@@ -3654,7 +3662,7 @@
         <v>36.944444444444443</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
         <v>44464</v>
       </c>
@@ -3701,7 +3709,7 @@
         <v>495.83333333333337</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="19">
         <v>44464</v>
       </c>
@@ -3760,7 +3768,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
         <v>44464</v>
       </c>
@@ -3822,7 +3830,7 @@
         <v>24.305555555555557</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="19">
         <v>44464</v>
       </c>
@@ -3884,7 +3892,7 @@
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
         <v>44464</v>
       </c>
@@ -3946,7 +3954,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="19">
         <v>44464</v>
       </c>
@@ -4008,7 +4016,7 @@
         <v>64.166666666666671</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="19">
         <v>44464</v>
       </c>
@@ -4070,7 +4078,7 @@
         <v>11.666666666666666</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="19">
         <v>44464</v>
       </c>
@@ -4123,7 +4131,7 @@
         <v>562.91666666666674</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="19">
         <v>44464</v>
       </c>
@@ -4182,7 +4190,7 @@
         <v>35.972222222222229</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="19">
         <v>44464</v>
       </c>
@@ -4244,7 +4252,7 @@
         <v>80.694444444444443</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="19">
         <v>44464</v>
       </c>
@@ -4306,7 +4314,7 @@
         <v>44.722222222222229</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="19">
         <v>44463</v>
       </c>
@@ -4362,7 +4370,7 @@
         <v>73.888888888888886</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="19">
         <v>44463</v>
       </c>
@@ -4424,7 +4432,7 @@
         <v>45.69444444444445</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="19">
         <v>44463</v>
       </c>
@@ -4471,7 +4479,7 @@
         <v>509.4444444444444</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="19">
         <v>44463</v>
       </c>
@@ -4533,7 +4541,7 @@
         <v>19.444444444444443</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="19">
         <v>44463</v>
       </c>
@@ -4586,7 +4594,7 @@
         <v>535.69444444444446</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="19">
         <v>44463</v>
       </c>
@@ -4639,7 +4647,7 @@
         <v>538.61111111111109</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="19">
         <v>44463</v>
       </c>
@@ -4701,7 +4709,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="19">
         <v>44463</v>
       </c>
@@ -4766,7 +4774,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="19">
         <v>44463</v>
       </c>
@@ -4819,7 +4827,7 @@
         <v>566.80555555555554</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="19">
         <v>44463</v>
       </c>
@@ -4872,7 +4880,7 @@
         <v>567.77777777777771</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="19">
         <v>44463</v>
       </c>
@@ -4928,7 +4936,7 @@
         <v>55.416666666666664</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="19">
         <v>44463</v>
       </c>
@@ -4990,7 +4998,7 @@
         <v>48.611111111111114</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="19">
         <v>44463</v>
       </c>
@@ -5052,7 +5060,7 @@
         <v>18.472222222222221</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="19">
         <v>44463</v>
       </c>
@@ -5105,7 +5113,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="19">
         <v>44463</v>
       </c>
@@ -5170,7 +5178,7 @@
         <v>209.02777777777777</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="19">
         <v>44463</v>
       </c>
@@ -5226,7 +5234,7 @@
         <v>45.69444444444445</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="19">
         <v>44462</v>
       </c>
@@ -5291,7 +5299,7 @@
         <v>122.50000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="19">
         <v>44462</v>
       </c>
@@ -5353,7 +5361,7 @@
         <v>39.861111111111107</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="19">
         <v>44462</v>
       </c>
@@ -5412,7 +5420,7 @@
         <v>42.777777777777779</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="19">
         <v>44462</v>
       </c>
@@ -5474,7 +5482,7 @@
         <v>73.888888888888886</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="19">
         <v>44462</v>
       </c>
@@ -5536,7 +5544,7 @@
         <v>74.861111111111114</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="19">
         <v>44462</v>
       </c>
@@ -5598,7 +5606,7 @@
         <v>25.277777777777779</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="19">
         <v>44462</v>
       </c>
@@ -5660,7 +5668,7 @@
         <v>24.305555555555557</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="19">
         <v>44462</v>
       </c>
@@ -5719,7 +5727,7 @@
         <v>20.416666666666664</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="19">
         <v>44462</v>
       </c>
@@ -5775,7 +5783,7 @@
         <v>44.722222222222229</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="19">
         <v>44462</v>
       </c>
@@ -5837,7 +5845,7 @@
         <v>28.194444444444446</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="19">
         <v>44462</v>
       </c>
@@ -5899,7 +5907,7 @@
         <v>34.027777777777779</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="19">
         <v>44461</v>
       </c>
@@ -5961,7 +5969,7 @@
         <v>24.305555555555557</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="19">
         <v>44461</v>
       </c>
@@ -6023,7 +6031,7 @@
         <v>22.361111111111114</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="19">
         <v>44461</v>
       </c>
@@ -6085,7 +6093,7 @@
         <v>20.416666666666664</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="19">
         <v>44461</v>
       </c>
@@ -6150,7 +6158,7 @@
         <v>57.361111111111114</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="19">
         <v>44461</v>
       </c>
@@ -6212,7 +6220,7 @@
         <v>29.166666666666664</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="19">
         <v>44461</v>
       </c>
@@ -6274,7 +6282,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="19">
         <v>44461</v>
       </c>
@@ -6336,7 +6344,7 @@
         <v>21.388888888888889</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="19">
         <v>44461</v>
       </c>
@@ -6395,7 +6403,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="19">
         <v>44461</v>
       </c>
@@ -6448,7 +6456,7 @@
         <v>627.08333333333337</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="19">
         <v>44461</v>
       </c>
@@ -6510,7 +6518,7 @@
         <v>164.30555555555554</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" s="19">
         <v>44461</v>
       </c>
@@ -6572,7 +6580,7 @@
         <v>34.027777777777779</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" s="19">
         <v>44461</v>
       </c>
@@ -6637,7 +6645,7 @@
         <v>85.555555555555557</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="19">
         <v>44461</v>
       </c>
@@ -6699,7 +6707,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" s="19">
         <v>44461</v>
       </c>
@@ -6761,7 +6769,7 @@
         <v>49.583333333333329</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" s="19">
         <v>44461</v>
       </c>
@@ -6826,7 +6834,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103" s="19">
         <v>44460</v>
       </c>
@@ -6885,7 +6893,7 @@
         <v>30.138888888888893</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104" s="19">
         <v>44460</v>
       </c>
@@ -6950,7 +6958,7 @@
         <v>48.611111111111114</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105" s="19">
         <v>44460</v>
       </c>
@@ -7012,7 +7020,7 @@
         <v>21.388888888888889</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" s="19">
         <v>44460</v>
       </c>
@@ -7074,7 +7082,7 @@
         <v>46.666666666666664</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" s="19">
         <v>44460</v>
       </c>
@@ -7136,7 +7144,7 @@
         <v>46.666666666666664</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" s="19">
         <v>44460</v>
       </c>
@@ -7198,7 +7206,7 @@
         <v>21.388888888888889</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A109" s="19">
         <v>44460</v>
       </c>
@@ -7260,7 +7268,7 @@
         <v>32.083333333333336</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110" s="19">
         <v>44460</v>
       </c>
@@ -7313,7 +7321,7 @@
         <v>24.305555555555557</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A111" s="19">
         <v>44460</v>
       </c>
@@ -7378,7 +7386,7 @@
         <v>32.083333333333336</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" s="19">
         <v>44460</v>
       </c>
@@ -7437,7 +7445,7 @@
         <v>627.08333333333337</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A113" s="19">
         <v>44460</v>
       </c>
@@ -7496,7 +7504,7 @@
         <v>94.305555555555557</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114" s="19">
         <v>44460</v>
       </c>
@@ -7543,7 +7551,7 @@
         <v>845.83333333333326</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115" s="19">
         <v>44460</v>
       </c>
@@ -7605,7 +7613,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116" s="19">
         <v>44459</v>
       </c>
@@ -7664,7 +7672,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117" s="19">
         <v>44459</v>
       </c>
@@ -7726,7 +7734,7 @@
         <v>20.416666666666664</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118" s="19">
         <v>44459</v>
       </c>
@@ -7785,7 +7793,7 @@
         <v>30.138888888888893</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119" s="19">
         <v>44459</v>
       </c>
@@ -7838,7 +7846,7 @@
         <v>740.83333333333337</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120" s="19">
         <v>44459</v>
       </c>
@@ -7900,7 +7908,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121" s="19">
         <v>44459</v>
       </c>
@@ -7959,7 +7967,7 @@
         <v>42.777777777777779</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122" s="19">
         <v>44459</v>
       </c>
@@ -8015,7 +8023,7 @@
         <v>774.8611111111112</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A123" s="19">
         <v>44459</v>
       </c>
@@ -8071,7 +8079,7 @@
         <v>787.5</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A124" s="19">
         <v>44459</v>
       </c>
@@ -8130,7 +8138,7 @@
         <v>798.19444444444446</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125" s="19">
         <v>44459</v>
       </c>
@@ -8192,7 +8200,7 @@
         <v>24.305555555555557</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A126" s="19">
         <v>44458</v>
       </c>
@@ -8254,7 +8262,7 @@
         <v>36.944444444444443</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127" s="19">
         <v>44458</v>
       </c>
@@ -8316,7 +8324,7 @@
         <v>41.805555555555557</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A128" s="19">
         <v>44458</v>
       </c>
@@ -8378,7 +8386,7 @@
         <v>27.222222222222221</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129" s="19">
         <v>44458</v>
       </c>
@@ -8437,7 +8445,7 @@
         <v>24.305555555555557</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130" s="19">
         <v>44458</v>
       </c>
@@ -8499,7 +8507,7 @@
         <v>33.055555555555557</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131" s="19">
         <v>44457</v>
       </c>
@@ -8561,7 +8569,7 @@
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" s="19">
         <v>44457</v>
       </c>
@@ -8620,7 +8628,7 @@
         <v>39.861111111111107</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133" s="19">
         <v>44457</v>
       </c>
@@ -8679,7 +8687,7 @@
         <v>49.583333333333329</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134" s="19">
         <v>44457</v>
       </c>
@@ -8741,7 +8749,7 @@
         <v>13.611111111111111</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135" s="19">
         <v>44457</v>
       </c>
@@ -8803,7 +8811,7 @@
         <v>15.555555555555555</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A136" s="19">
         <v>44457</v>
       </c>
@@ -8865,7 +8873,7 @@
         <v>11.666666666666666</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137" s="19">
         <v>44457</v>
       </c>
@@ -8918,7 +8926,7 @@
         <v>582.36111111111109</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138" s="19">
         <v>44457</v>
       </c>
@@ -8980,7 +8988,7 @@
         <v>28.194444444444446</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139" s="19">
         <v>44457</v>
       </c>
@@ -9042,7 +9050,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140" s="19">
         <v>44457</v>
       </c>
@@ -9104,7 +9112,7 @@
         <v>40.833333333333329</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A141" s="19">
         <v>44457</v>
       </c>
@@ -9151,7 +9159,7 @@
         <v>683.47222222222217</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142" s="19">
         <v>44457</v>
       </c>
@@ -9198,7 +9206,7 @@
         <v>692.22222222222229</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143" s="19">
         <v>44456</v>
       </c>
@@ -9254,7 +9262,7 @@
         <v>501.66666666666669</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144" s="19">
         <v>44456</v>
       </c>
@@ -9310,7 +9318,7 @@
         <v>513.33333333333337</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A145" s="19">
         <v>44456</v>
       </c>
@@ -9372,7 +9380,7 @@
         <v>34.027777777777779</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A146" s="19">
         <v>44456</v>
       </c>
@@ -9434,7 +9442,7 @@
         <v>66.111111111111114</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A147" s="19">
         <v>44456</v>
       </c>
@@ -9487,7 +9495,7 @@
         <v>525.97222222222229</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A148" s="19">
         <v>44456</v>
       </c>
@@ -9546,7 +9554,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A149" s="19">
         <v>44456</v>
       </c>
@@ -9608,7 +9616,7 @@
         <v>45.69444444444445</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A150" s="19">
         <v>44456</v>
       </c>
@@ -9670,7 +9678,7 @@
         <v>34.027777777777779</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A151" s="19">
         <v>44456</v>
       </c>
@@ -9732,7 +9740,7 @@
         <v>22.361111111111114</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A152" s="19">
         <v>44456</v>
       </c>
@@ -9779,7 +9787,7 @@
         <v>593.05555555555554</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A153" s="19">
         <v>44456</v>
       </c>
@@ -9841,7 +9849,7 @@
         <v>15.555555555555555</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A154" s="19">
         <v>44456</v>
       </c>
@@ -9894,7 +9902,7 @@
         <v>716.52777777777771</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A155" s="19">
         <v>44456</v>
       </c>
@@ -9956,7 +9964,7 @@
         <v>57.361111111111114</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A156" s="19">
         <v>44456</v>
       </c>
@@ -10000,7 +10008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A157" s="19">
         <v>44456</v>
       </c>
@@ -10062,7 +10070,7 @@
         <v>63.194444444444443</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A158" s="19">
         <v>44456</v>
       </c>
@@ -10124,7 +10132,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A159" s="19">
         <v>44456</v>
       </c>
@@ -10180,7 +10188,7 @@
         <v>828.33333333333337</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A160" s="19">
         <v>44456</v>
       </c>
@@ -10233,7 +10241,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A161" s="19">
         <v>44456</v>
       </c>
@@ -10295,7 +10303,7 @@
         <v>69.027777777777771</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A162" s="19">
         <v>44456</v>
       </c>
@@ -10357,7 +10365,7 @@
         <v>22.361111111111114</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A163" s="19">
         <v>44455</v>
       </c>
@@ -10419,7 +10427,7 @@
         <v>83.611111111111114</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A164" s="19">
         <v>44455</v>
       </c>
@@ -10481,7 +10489,7 @@
         <v>35.972222222222229</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A165" s="19">
         <v>44455</v>
       </c>
@@ -10543,7 +10551,7 @@
         <v>92.361111111111114</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A166" s="19">
         <v>44455</v>
       </c>
@@ -10608,7 +10616,7 @@
         <v>27.222222222222221</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A167" s="19">
         <v>44455</v>
       </c>
@@ -10670,7 +10678,7 @@
         <v>1.9444444444444444</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A168" s="19">
         <v>44455</v>
       </c>
@@ -10732,7 +10740,7 @@
         <v>30.138888888888893</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A169" s="19">
         <v>44455</v>
       </c>
@@ -10797,7 +10805,7 @@
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A170" s="19">
         <v>44455</v>
       </c>
@@ -10853,7 +10861,7 @@
         <v>884.72222222222217</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A171" s="19">
         <v>44455</v>
       </c>
@@ -10915,7 +10923,7 @@
         <v>20.416666666666664</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A172" s="19">
         <v>44454</v>
       </c>
@@ -10977,7 +10985,7 @@
         <v>16.527777777777779</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A173" s="19">
         <v>44454</v>
       </c>
@@ -11039,7 +11047,7 @@
         <v>21.388888888888889</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A174" s="19">
         <v>44454</v>
       </c>
@@ -11101,7 +11109,7 @@
         <v>35.972222222222229</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A175" s="19">
         <v>44454</v>
       </c>
@@ -11160,7 +11168,7 @@
         <v>35.972222222222229</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A176" s="19">
         <v>44454</v>
       </c>
@@ -11216,7 +11224,7 @@
         <v>582.36111111111109</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A177" s="19">
         <v>44454</v>
       </c>
@@ -11278,7 +11286,7 @@
         <v>30.138888888888893</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A178" s="19">
         <v>44454</v>
       </c>
@@ -11340,7 +11348,7 @@
         <v>22.361111111111114</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A179" s="19">
         <v>44454</v>
       </c>
@@ -11396,7 +11404,7 @@
         <v>85.555555555555557</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A180" s="19">
         <v>44454</v>
       </c>
@@ -11458,7 +11466,7 @@
         <v>73.888888888888886</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A181" s="19">
         <v>44454</v>
       </c>
@@ -11520,7 +11528,7 @@
         <v>34.027777777777779</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A182" s="19">
         <v>44453</v>
       </c>
@@ -11582,7 +11590,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A183" s="19">
         <v>44453</v>
       </c>
@@ -11644,7 +11652,7 @@
         <v>28.194444444444446</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A184" s="19">
         <v>44453</v>
       </c>
@@ -11706,7 +11714,7 @@
         <v>28.194444444444446</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A185" s="19">
         <v>44453</v>
       </c>
@@ -11768,7 +11776,7 @@
         <v>41.805555555555557</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A186" s="19">
         <v>44453</v>
       </c>
@@ -11830,7 +11838,7 @@
         <v>18.472222222222221</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A187" s="19">
         <v>44453</v>
       </c>
@@ -11892,7 +11900,7 @@
         <v>19.444444444444443</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A188" s="19">
         <v>44453</v>
       </c>
@@ -11957,7 +11965,7 @@
         <v>19.444444444444443</v>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A189" s="19">
         <v>44453</v>
       </c>
@@ -12019,7 +12027,7 @@
         <v>14.583333333333332</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A190" s="19">
         <v>44453</v>
       </c>
@@ -12075,7 +12083,7 @@
         <v>728.19444444444434</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A191" s="19">
         <v>44453</v>
       </c>
@@ -12137,7 +12145,7 @@
         <v>42.777777777777779</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A192" s="19">
         <v>44453</v>
       </c>
@@ -12190,7 +12198,7 @@
         <v>855.55555555555543</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A193" s="19">
         <v>44452</v>
       </c>
@@ -12252,7 +12260,7 @@
         <v>21.388888888888889</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A194" s="19">
         <v>44452</v>
       </c>
@@ -12314,7 +12322,7 @@
         <v>20.416666666666664</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A195" s="19">
         <v>44452</v>
       </c>
@@ -12376,7 +12384,7 @@
         <v>12.638888888888889</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A196" s="19">
         <v>44452</v>
       </c>
@@ -12423,7 +12431,7 @@
         <v>821.52777777777783</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A197" s="19">
         <v>44452</v>
       </c>
@@ -12470,7 +12478,7 @@
         <v>862.3611111111112</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A198" s="19">
         <v>44452</v>
       </c>
@@ -12532,7 +12540,7 @@
         <v>35.972222222222229</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A199" s="19">
         <v>44452</v>
       </c>
@@ -12594,7 +12602,7 @@
         <v>25.277777777777779</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A200" s="19">
         <v>44451</v>
       </c>
@@ -12656,7 +12664,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A201" s="19">
         <v>44451</v>
       </c>
@@ -12718,7 +12726,7 @@
         <v>22.361111111111114</v>
       </c>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A202" s="19">
         <v>44451</v>
       </c>
@@ -12780,7 +12788,7 @@
         <v>96.249999999999986</v>
       </c>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A203" s="19">
         <v>44451</v>
       </c>
@@ -12842,7 +12850,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A204" s="19">
         <v>44451</v>
       </c>
@@ -12904,7 +12912,7 @@
         <v>39.861111111111107</v>
       </c>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205" s="19">
         <v>44451</v>
       </c>
@@ -12966,7 +12974,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A206" s="19">
         <v>44451</v>
       </c>
@@ -13028,7 +13036,7 @@
         <v>35.972222222222229</v>
       </c>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A207" s="19">
         <v>44451</v>
       </c>
@@ -13090,7 +13098,7 @@
         <v>20.416666666666664</v>
       </c>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A208" s="19">
         <v>44451</v>
       </c>
@@ -13152,7 +13160,7 @@
         <v>9.7222222222222214</v>
       </c>
     </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A209" s="19">
         <v>44450</v>
       </c>
@@ -13211,7 +13219,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A210" s="19">
         <v>44450</v>
       </c>
@@ -13273,7 +13281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A211" s="19">
         <v>44450</v>
       </c>
@@ -13335,7 +13343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A212" s="19">
         <v>44450</v>
       </c>
@@ -13397,7 +13405,7 @@
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A213" s="19">
         <v>44450</v>
       </c>
@@ -13456,7 +13464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A214" s="19">
         <v>44450</v>
       </c>
@@ -13515,7 +13523,7 @@
         <v>36.944444444444443</v>
       </c>
     </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A215" s="19">
         <v>44450</v>
       </c>
@@ -13577,7 +13585,7 @@
         <v>16.527777777777779</v>
       </c>
     </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A216" s="19">
         <v>44450</v>
       </c>
@@ -13639,7 +13647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A217" s="19">
         <v>44450</v>
       </c>
@@ -13692,7 +13700,7 @@
         <v>717.50000000000011</v>
       </c>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A218" s="19">
         <v>44449</v>
       </c>
@@ -13754,7 +13762,7 @@
         <v>21.388888888888889</v>
       </c>
     </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A219" s="19">
         <v>44449</v>
       </c>
@@ -13813,7 +13821,7 @@
         <v>41.805555555555557</v>
       </c>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A220" s="19">
         <v>44449</v>
       </c>
@@ -13878,7 +13886,7 @@
         <v>81.666666666666657</v>
       </c>
     </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A221" s="19">
         <v>44449</v>
       </c>
@@ -13940,7 +13948,7 @@
         <v>54.444444444444443</v>
       </c>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A222" s="19">
         <v>44449</v>
       </c>
@@ -14002,7 +14010,7 @@
         <v>175.97222222222223</v>
       </c>
     </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A223" s="19">
         <v>44449</v>
       </c>
@@ -14064,7 +14072,7 @@
         <v>36.944444444444443</v>
       </c>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A224" s="19">
         <v>44449</v>
       </c>
@@ -14126,7 +14134,7 @@
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A225" s="19">
         <v>44449</v>
       </c>
@@ -14179,7 +14187,7 @@
         <v>612.5</v>
       </c>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A226" s="19">
         <v>44449</v>
       </c>
@@ -14235,7 +14243,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A227" s="19">
         <v>44449</v>
       </c>
@@ -14297,7 +14305,7 @@
         <v>51.527777777777779</v>
       </c>
     </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A228" s="19">
         <v>44449</v>
       </c>
@@ -14359,7 +14367,7 @@
         <v>11.666666666666666</v>
       </c>
     </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A229" s="19">
         <v>44449</v>
       </c>
@@ -14421,7 +14429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A230" s="19">
         <v>44449</v>
       </c>
@@ -14483,7 +14491,7 @@
         <v>29.166666666666664</v>
       </c>
     </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A231" s="19">
         <v>44449</v>
       </c>
@@ -14545,7 +14553,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A232" s="19">
         <v>44449</v>
       </c>
@@ -14610,7 +14618,7 @@
         <v>46.666666666666664</v>
       </c>
     </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233" s="19">
         <v>44449</v>
       </c>
@@ -14675,7 +14683,7 @@
         <v>16.527777777777779</v>
       </c>
     </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234" s="19">
         <v>44449</v>
       </c>
@@ -14737,7 +14745,7 @@
         <v>579.44444444444446</v>
       </c>
     </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235" s="19">
         <v>44449</v>
       </c>
@@ -14799,7 +14807,7 @@
         <v>11.666666666666666</v>
       </c>
     </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236" s="19">
         <v>44448</v>
       </c>
@@ -14861,7 +14869,7 @@
         <v>96.249999999999986</v>
       </c>
     </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A237" s="19">
         <v>44448</v>
       </c>
@@ -14923,7 +14931,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238" s="19">
         <v>44448</v>
       </c>
@@ -14985,7 +14993,7 @@
         <v>32.083333333333336</v>
       </c>
     </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A239" s="19">
         <v>44448</v>
       </c>
@@ -15047,7 +15055,7 @@
         <v>30.138888888888893</v>
       </c>
     </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A240" s="19">
         <v>44448</v>
       </c>
@@ -15109,7 +15117,7 @@
         <v>32.083333333333336</v>
       </c>
     </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A241" s="19">
         <v>44448</v>
       </c>
@@ -15171,7 +15179,7 @@
         <v>126.38888888888889</v>
       </c>
     </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A242" s="19">
         <v>44448</v>
       </c>
@@ -15233,7 +15241,7 @@
         <v>82.6388888888889</v>
       </c>
     </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A243" s="19">
         <v>44448</v>
       </c>
@@ -15289,7 +15297,7 @@
         <v>750.55555555555554</v>
       </c>
     </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A244" s="19">
         <v>44448</v>
       </c>
@@ -15336,7 +15344,7 @@
         <v>751.52777777777771</v>
       </c>
     </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A245" s="19">
         <v>44447</v>
       </c>
@@ -15398,7 +15406,7 @@
         <v>34.027777777777779</v>
       </c>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A246" s="19">
         <v>44447</v>
       </c>
@@ -15460,7 +15468,7 @@
         <v>40.833333333333329</v>
       </c>
     </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A247" s="19">
         <v>44447</v>
       </c>
@@ -15522,7 +15530,7 @@
         <v>42.777777777777779</v>
       </c>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A248" s="19">
         <v>44447</v>
       </c>
@@ -15584,7 +15592,7 @@
         <v>36.944444444444443</v>
       </c>
     </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A249" s="19">
         <v>44447</v>
       </c>
@@ -15646,7 +15654,7 @@
         <v>25.277777777777779</v>
       </c>
     </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250" s="19">
         <v>44447</v>
       </c>
@@ -15708,7 +15716,7 @@
         <v>53.472222222222214</v>
       </c>
     </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A251" s="19">
         <v>44447</v>
       </c>
@@ -15767,7 +15775,7 @@
         <v>53.472222222222214</v>
       </c>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A252" s="19">
         <v>44447</v>
       </c>
@@ -15829,7 +15837,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A253" s="19">
         <v>44446</v>
       </c>
@@ -15888,7 +15896,7 @@
         <v>51.527777777777779</v>
       </c>
     </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254" s="19">
         <v>44446</v>
       </c>
@@ -15950,7 +15958,7 @@
         <v>19.444444444444443</v>
       </c>
     </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A255" s="19">
         <v>44446</v>
       </c>
@@ -16012,7 +16020,7 @@
         <v>48.611111111111114</v>
       </c>
     </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A256" s="19">
         <v>44446</v>
       </c>
@@ -16074,7 +16082,7 @@
         <v>34.027777777777779</v>
       </c>
     </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A257" s="19">
         <v>44446</v>
       </c>
@@ -16136,7 +16144,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="258" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A258" s="19">
         <v>44446</v>
       </c>
@@ -16195,7 +16203,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A259" s="19">
         <v>44446</v>
       </c>
@@ -16257,7 +16265,7 @@
         <v>21.388888888888889</v>
       </c>
     </row>
-    <row r="260" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A260" s="19">
         <v>44446</v>
       </c>
@@ -16310,7 +16318,7 @@
         <v>826.38888888888891</v>
       </c>
     </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A261" s="19">
         <v>44445</v>
       </c>
@@ -16372,7 +16380,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="262" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A262" s="19">
         <v>44445</v>
       </c>
@@ -16419,7 +16427,7 @@
         <v>528.88888888888891</v>
       </c>
     </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A263" s="19">
         <v>44445</v>
       </c>
@@ -16484,7 +16492,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="264" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A264" s="19">
         <v>44445</v>
       </c>
@@ -16546,7 +16554,7 @@
         <v>57.361111111111114</v>
       </c>
     </row>
-    <row r="265" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A265" s="19">
         <v>44445</v>
       </c>
@@ -16608,7 +16616,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="266" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A266" s="19">
         <v>44445</v>
       </c>
@@ -16655,7 +16663,7 @@
         <v>619.30555555555566</v>
       </c>
     </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A267" s="19">
         <v>44445</v>
       </c>
@@ -16708,7 +16716,7 @@
         <v>747.63888888888891</v>
       </c>
     </row>
-    <row r="268" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A268" s="19">
         <v>44445</v>
       </c>
@@ -16770,7 +16778,7 @@
         <v>30.138888888888893</v>
       </c>
     </row>
-    <row r="269" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A269" s="19">
         <v>44445</v>
       </c>
@@ -16832,7 +16840,7 @@
         <v>14.583333333333332</v>
       </c>
     </row>
-    <row r="270" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A270" s="19">
         <v>44445</v>
       </c>
@@ -16894,7 +16902,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A271" s="19">
         <v>44445</v>
       </c>
@@ -16941,7 +16949,7 @@
         <v>975.1388888888888</v>
       </c>
     </row>
-    <row r="272" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A272" s="19">
         <v>44444</v>
       </c>
@@ -17006,7 +17014,7 @@
         <v>29.166666666666664</v>
       </c>
     </row>
-    <row r="273" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A273" s="19">
         <v>44444</v>
       </c>
@@ -17068,7 +17076,7 @@
         <v>12.638888888888889</v>
       </c>
     </row>
-    <row r="274" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A274" s="19">
         <v>44444</v>
       </c>
@@ -17130,7 +17138,7 @@
         <v>40.833333333333329</v>
       </c>
     </row>
-    <row r="275" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A275" s="19">
         <v>44444</v>
       </c>
@@ -17192,7 +17200,7 @@
         <v>32.083333333333336</v>
       </c>
     </row>
-    <row r="276" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A276" s="19">
         <v>44444</v>
       </c>
@@ -17254,7 +17262,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="277" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A277" s="19">
         <v>44443</v>
       </c>
@@ -17316,7 +17324,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="278" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A278" s="19">
         <v>44443</v>
       </c>
@@ -17378,7 +17386,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="279" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A279" s="19">
         <v>44443</v>
       </c>
@@ -17440,7 +17448,7 @@
         <v>58.333333333333329</v>
       </c>
     </row>
-    <row r="280" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A280" s="19">
         <v>44443</v>
       </c>
@@ -17502,7 +17510,7 @@
         <v>32.083333333333336</v>
       </c>
     </row>
-    <row r="281" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A281" s="19">
         <v>44443</v>
       </c>
@@ -17558,7 +17566,7 @@
         <v>581.38888888888891</v>
       </c>
     </row>
-    <row r="282" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A282" s="19">
         <v>44443</v>
       </c>
@@ -17617,7 +17625,7 @@
         <v>14.583333333333332</v>
       </c>
     </row>
-    <row r="283" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A283" s="19">
         <v>44443</v>
       </c>
@@ -17679,7 +17687,7 @@
         <v>20.416666666666664</v>
       </c>
     </row>
-    <row r="284" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A284" s="19">
         <v>44443</v>
       </c>
@@ -17741,7 +17749,7 @@
         <v>11.666666666666666</v>
       </c>
     </row>
-    <row r="285" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A285" s="19">
         <v>44443</v>
       </c>
@@ -17803,7 +17811,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="286" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A286" s="19">
         <v>44443</v>
       </c>
@@ -17865,7 +17873,7 @@
         <v>19.444444444444443</v>
       </c>
     </row>
-    <row r="287" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A287" s="19">
         <v>44443</v>
       </c>
@@ -17924,7 +17932,7 @@
         <v>35.972222222222229</v>
       </c>
     </row>
-    <row r="288" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A288" s="19">
         <v>44443</v>
       </c>
@@ -17986,7 +17994,7 @@
         <v>15.555555555555555</v>
       </c>
     </row>
-    <row r="289" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A289" s="19">
         <v>44442</v>
       </c>
@@ -18048,7 +18056,7 @@
         <v>13.611111111111111</v>
       </c>
     </row>
-    <row r="290" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A290" s="19">
         <v>44442</v>
       </c>
@@ -18110,7 +18118,7 @@
         <v>27.222222222222221</v>
       </c>
     </row>
-    <row r="291" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A291" s="19">
         <v>44442</v>
       </c>
@@ -18169,7 +18177,7 @@
         <v>50.555555555555557</v>
       </c>
     </row>
-    <row r="292" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A292" s="19">
         <v>44442</v>
       </c>
@@ -18228,7 +18236,7 @@
         <v>13.611111111111111</v>
       </c>
     </row>
-    <row r="293" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A293" s="19">
         <v>44442</v>
       </c>
@@ -18290,7 +18298,7 @@
         <v>47.638888888888886</v>
       </c>
     </row>
-    <row r="294" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A294" s="19">
         <v>44442</v>
       </c>
@@ -18352,7 +18360,7 @@
         <v>53.472222222222214</v>
       </c>
     </row>
-    <row r="295" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A295" s="19">
         <v>44442</v>
       </c>
@@ -18417,7 +18425,7 @@
         <v>24.305555555555557</v>
       </c>
     </row>
-    <row r="296" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A296" s="19">
         <v>44442</v>
       </c>
@@ -18476,7 +18484,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="297" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A297" s="19">
         <v>44442</v>
       </c>
@@ -18538,7 +18546,7 @@
         <v>55.416666666666664</v>
       </c>
     </row>
-    <row r="298" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A298" s="19">
         <v>44442</v>
       </c>
@@ -18600,7 +18608,7 @@
         <v>18.472222222222221</v>
       </c>
     </row>
-    <row r="299" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A299" s="19">
         <v>44442</v>
       </c>
@@ -18662,7 +18670,7 @@
         <v>70.972222222222229</v>
       </c>
     </row>
-    <row r="300" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A300" s="19">
         <v>44442</v>
       </c>
@@ -18724,7 +18732,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="301" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A301" s="19">
         <v>44442</v>
       </c>
@@ -18783,7 +18791,7 @@
         <v>24.305555555555557</v>
       </c>
     </row>
-    <row r="302" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A302" s="19">
         <v>44442</v>
       </c>
@@ -18845,7 +18853,7 @@
         <v>22.361111111111114</v>
       </c>
     </row>
-    <row r="303" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A303" s="19">
         <v>44442</v>
       </c>
@@ -18898,7 +18906,7 @@
         <v>815.69444444444434</v>
       </c>
     </row>
-    <row r="304" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A304" s="19">
         <v>44442</v>
       </c>
@@ -18951,7 +18959,7 @@
         <v>908.05555555555554</v>
       </c>
     </row>
-    <row r="305" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A305" s="19">
         <v>44442</v>
       </c>
@@ -19004,7 +19012,7 @@
         <v>981.94444444444434</v>
       </c>
     </row>
-    <row r="306" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A306" s="19">
         <v>44441</v>
       </c>
@@ -19066,7 +19074,7 @@
         <v>20.416666666666664</v>
       </c>
     </row>
-    <row r="307" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A307" s="19">
         <v>44441</v>
       </c>
@@ -19128,7 +19136,7 @@
         <v>34.027777777777779</v>
       </c>
     </row>
-    <row r="308" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A308" s="19">
         <v>44441</v>
       </c>
@@ -19190,7 +19198,7 @@
         <v>53.472222222222214</v>
       </c>
     </row>
-    <row r="309" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A309" s="19">
         <v>44441</v>
       </c>
@@ -19243,7 +19251,7 @@
         <v>549.30555555555554</v>
       </c>
     </row>
-    <row r="310" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A310" s="19">
         <v>44441</v>
       </c>
@@ -19305,7 +19313,7 @@
         <v>41.805555555555557</v>
       </c>
     </row>
-    <row r="311" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A311" s="19">
         <v>44441</v>
       </c>
@@ -19367,7 +19375,7 @@
         <v>13.611111111111111</v>
       </c>
     </row>
-    <row r="312" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A312" s="19">
         <v>44441</v>
       </c>
@@ -19432,7 +19440,7 @@
         <v>267.36111111111109</v>
       </c>
     </row>
-    <row r="313" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A313" s="19">
         <v>44441</v>
       </c>
@@ -19485,7 +19493,7 @@
         <v>731.1111111111112</v>
       </c>
     </row>
-    <row r="314" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A314" s="19">
         <v>44441</v>
       </c>
@@ -19538,7 +19546,7 @@
         <v>746.66666666666663</v>
       </c>
     </row>
-    <row r="315" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A315" s="19">
         <v>44441</v>
       </c>
@@ -19591,7 +19599,7 @@
         <v>758.33333333333326</v>
       </c>
     </row>
-    <row r="316" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A316" s="19">
         <v>44441</v>
       </c>
@@ -19656,7 +19664,7 @@
         <v>22.361111111111114</v>
       </c>
     </row>
-    <row r="317" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A317" s="19">
         <v>44441</v>
       </c>
@@ -19703,7 +19711,7 @@
         <v>822.5</v>
       </c>
     </row>
-    <row r="318" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A318" s="19">
         <v>44441</v>
       </c>
@@ -19768,7 +19776,7 @@
         <v>14.583333333333332</v>
       </c>
     </row>
-    <row r="319" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A319" s="19">
         <v>44441</v>
       </c>
@@ -19833,7 +19841,7 @@
         <v>117.63888888888889</v>
       </c>
     </row>
-    <row r="320" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A320" s="19">
         <v>44441</v>
       </c>
@@ -19883,7 +19891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A321" s="19">
         <v>44441</v>
       </c>
@@ -19945,7 +19953,7 @@
         <v>41.805555555555557</v>
       </c>
     </row>
-    <row r="322" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A322" s="19">
         <v>44440</v>
       </c>
@@ -20007,7 +20015,7 @@
         <v>48.611111111111114</v>
       </c>
     </row>
-    <row r="323" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A323" s="19">
         <v>44440</v>
       </c>
@@ -20069,7 +20077,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="324" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A324" s="19">
         <v>44440</v>
       </c>
@@ -20128,7 +20136,7 @@
         <v>79.722222222222214</v>
       </c>
     </row>
-    <row r="325" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A325" s="19">
         <v>44440</v>
       </c>
@@ -20190,7 +20198,7 @@
         <v>13.611111111111111</v>
       </c>
     </row>
-    <row r="326" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A326" s="19">
         <v>44440</v>
       </c>
@@ -20252,7 +20260,7 @@
         <v>77.777777777777771</v>
       </c>
     </row>
-    <row r="327" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A327" s="19">
         <v>44440</v>
       </c>
@@ -20314,7 +20322,7 @@
         <v>30.138888888888893</v>
       </c>
     </row>
-    <row r="328" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A328" s="19">
         <v>44440</v>
       </c>
@@ -20376,7 +20384,7 @@
         <v>45.69444444444445</v>
       </c>
     </row>
-    <row r="329" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A329" s="19">
         <v>44440</v>
       </c>
@@ -20438,7 +20446,7 @@
         <v>64.166666666666671</v>
       </c>
     </row>
-    <row r="330" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A330" s="19">
         <v>44440</v>
       </c>
@@ -20500,7 +20508,7 @@
         <v>51.527777777777779</v>
       </c>
     </row>
-    <row r="331" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A331" s="19">
         <v>44440</v>
       </c>
@@ -20547,7 +20555,7 @@
         <v>613.47222222222229</v>
       </c>
     </row>
-    <row r="332" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A332" s="19">
         <v>44440</v>
       </c>
@@ -20609,7 +20617,7 @@
         <v>24.305555555555557</v>
       </c>
     </row>
-    <row r="333" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A333" s="19">
         <v>44440</v>
       </c>
@@ -20671,7 +20679,7 @@
         <v>55.416666666666664</v>
       </c>
     </row>
-    <row r="334" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A334" s="19">
         <v>44440</v>
       </c>
@@ -20733,7 +20741,7 @@
         <v>16.527777777777779</v>
       </c>
     </row>
-    <row r="335" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A335" s="19">
         <v>44440</v>
       </c>
@@ -20789,7 +20797,7 @@
         <v>653.33333333333326</v>
       </c>
     </row>
-    <row r="336" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A336" s="19">
         <v>44440</v>
       </c>
@@ -20851,7 +20859,7 @@
         <v>19.444444444444443</v>
       </c>
     </row>
-    <row r="337" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A337" s="19">
         <v>44440</v>
       </c>
@@ -20895,15 +20903,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A338" s="19">
         <v>44440</v>
       </c>
       <c r="B338">
         <v>1021062959</v>
       </c>
-      <c r="C338" t="s">
-        <v>86</v>
+      <c r="C338">
+        <v>110</v>
       </c>
       <c r="D338" t="s">
         <v>26</v>
@@ -20957,7 +20965,7 @@
         <v>30.138888888888893</v>
       </c>
     </row>
-    <row r="339" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A339" s="19">
         <v>44440</v>
       </c>
@@ -21019,7 +21027,7 @@
         <v>35.972222222222229</v>
       </c>
     </row>
-    <row r="340" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A340" s="19">
         <v>44440</v>
       </c>
@@ -21081,7 +21089,7 @@
         <v>27.222222222222221</v>
       </c>
     </row>
-    <row r="341" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A341" s="19">
         <v>44440</v>
       </c>
@@ -21143,7 +21151,7 @@
         <v>34.027777777777779</v>
       </c>
     </row>
-    <row r="342" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A342" s="19">
         <v>44440</v>
       </c>
@@ -21205,7 +21213,7 @@
         <v>29.166666666666664</v>
       </c>
     </row>
-    <row r="343" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A343" s="19">
         <v>44440</v>
       </c>
@@ -21267,7 +21275,7 @@
         <v>28.194444444444446</v>
       </c>
     </row>
-    <row r="344" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A344" s="19">
         <v>44440</v>
       </c>
@@ -21320,7 +21328,7 @@
         <v>785.55555555555554</v>
       </c>
     </row>
-    <row r="345" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A345" s="19">
         <v>44440</v>
       </c>
@@ -21382,7 +21390,7 @@
         <v>0.97222222222222221</v>
       </c>
     </row>
-    <row r="346" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A346" s="19">
         <v>44440</v>
       </c>
@@ -21444,7 +21452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
       <c r="B347" s="2"/>
       <c r="C347" s="3"/>
@@ -21475,7 +21483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A348" s="8"/>
       <c r="B348" s="9"/>
       <c r="C348" s="10"/>
@@ -21506,7 +21514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
       <c r="C349" s="3"/>
@@ -21537,7 +21545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A350" s="8"/>
       <c r="B350" s="9"/>
       <c r="C350" s="10"/>
@@ -21568,7 +21576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="B351" s="2"/>
       <c r="C351" s="3"/>
@@ -21599,7 +21607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A352" s="8"/>
       <c r="B352" s="9"/>
       <c r="C352" s="10"/>
@@ -21630,7 +21638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="B353" s="2"/>
       <c r="C353" s="3"/>
@@ -21661,7 +21669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A354" s="8"/>
       <c r="B354" s="9"/>
       <c r="C354" s="10"/>
@@ -21692,7 +21700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="B355" s="2"/>
       <c r="C355" s="3"/>
@@ -21723,7 +21731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A356" s="8"/>
       <c r="B356" s="9"/>
       <c r="C356" s="10"/>
@@ -21754,7 +21762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
       <c r="B357" s="2"/>
       <c r="C357" s="3"/>
@@ -21785,7 +21793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A358" s="8"/>
       <c r="B358" s="9"/>
       <c r="C358" s="10"/>
@@ -21816,7 +21824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
       <c r="B359" s="2"/>
       <c r="C359" s="3"/>
@@ -21847,7 +21855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A360" s="8"/>
       <c r="B360" s="9"/>
       <c r="C360" s="10"/>
@@ -21878,7 +21886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
       <c r="B361" s="2"/>
       <c r="C361" s="3"/>
@@ -21909,7 +21917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A362" s="8"/>
       <c r="B362" s="9"/>
       <c r="C362" s="10"/>
@@ -21940,7 +21948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="B363" s="2"/>
       <c r="C363" s="3"/>
@@ -21971,7 +21979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A364" s="8"/>
       <c r="B364" s="9"/>
       <c r="C364" s="10"/>
@@ -22002,7 +22010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
       <c r="C365" s="3"/>
@@ -22033,7 +22041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A366" s="8"/>
       <c r="B366" s="9"/>
       <c r="C366" s="10"/>
@@ -22064,7 +22072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A367" s="1"/>
       <c r="B367" s="2"/>
       <c r="C367" s="3"/>
@@ -22095,7 +22103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A368" s="8"/>
       <c r="B368" s="9"/>
       <c r="C368" s="10"/>
@@ -22126,7 +22134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
       <c r="B369" s="2"/>
       <c r="C369" s="3"/>
@@ -22157,7 +22165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A370" s="8"/>
       <c r="B370" s="9"/>
       <c r="C370" s="10"/>
@@ -22188,7 +22196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A371" s="1"/>
       <c r="B371" s="2"/>
       <c r="C371" s="3"/>
@@ -22219,7 +22227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A372" s="8"/>
       <c r="B372" s="9"/>
       <c r="C372" s="10"/>
@@ -22250,7 +22258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
       <c r="B373" s="2"/>
       <c r="C373" s="3"/>
@@ -22281,7 +22289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A374" s="8"/>
       <c r="B374" s="9"/>
       <c r="C374" s="10"/>
@@ -22312,7 +22320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
       <c r="B375" s="2"/>
       <c r="C375" s="3"/>
@@ -22343,7 +22351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A376" s="8"/>
       <c r="B376" s="9"/>
       <c r="C376" s="10"/>
@@ -22374,7 +22382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A377" s="1"/>
       <c r="B377" s="2"/>
       <c r="C377" s="3"/>
@@ -22406,6 +22414,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:W346" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
